--- a/beam_analysis_results_with_wind.xlsx
+++ b/beam_analysis_results_with_wind.xlsx
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>502.8679411764707</v>
+        <v>511.3332020547945</v>
       </c>
       <c r="C2" t="n">
-        <v>15034.01741379311</v>
+        <v>15287.09952350024</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>15034.01741379311</v>
+        <v>15287.09952350024</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -503,2576 +503,2576 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.08585858585858586</v>
+        <v>0.09217171717171717</v>
       </c>
       <c r="B3" t="n">
-        <v>499.6482442067737</v>
+        <v>507.8767626608551</v>
       </c>
       <c r="C3" t="n">
-        <v>14937.75957680251</v>
+        <v>15183.76390437798</v>
       </c>
       <c r="D3" t="n">
-        <v>43.03731098867463</v>
+        <v>46.97116630318334</v>
       </c>
       <c r="E3" t="n">
-        <v>1.587441798762589</v>
+        <v>1.732543019379713</v>
       </c>
       <c r="F3" t="n">
         <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>14937.75957680251</v>
+        <v>15183.76390437798</v>
       </c>
       <c r="H3" t="n">
-        <v>5.473937237112375e-08</v>
+        <v>5.775143397932378e-08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1717171717171717</v>
+        <v>0.1843434343434343</v>
       </c>
       <c r="B4" t="n">
-        <v>496.4285472370767</v>
+        <v>504.4203232669157</v>
       </c>
       <c r="C4" t="n">
-        <v>14841.50173981192</v>
+        <v>15080.42828525572</v>
       </c>
       <c r="D4" t="n">
-        <v>85.79818334863791</v>
+        <v>93.62374665212732</v>
       </c>
       <c r="E4" t="n">
-        <v>3.164687090728448</v>
+        <v>3.4533349174965</v>
       </c>
       <c r="F4" t="n">
         <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>14841.50173981192</v>
+        <v>15080.42828525572</v>
       </c>
       <c r="H4" t="n">
-        <v>1.091271410596016e-07</v>
+        <v>1.1511116391655e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.2575757575757576</v>
+        <v>0.2765151515151515</v>
       </c>
       <c r="B5" t="n">
-        <v>493.2088502673797</v>
+        <v>500.9638838729763</v>
       </c>
       <c r="C5" t="n">
-        <v>14745.24390282132</v>
+        <v>14977.09266613346</v>
       </c>
       <c r="D5" t="n">
-        <v>128.2826170798898</v>
+        <v>139.9577410468319</v>
       </c>
       <c r="E5" t="n">
-        <v>4.731735875897575</v>
+        <v>5.162375694350358</v>
       </c>
       <c r="F5" t="n">
         <v>-0</v>
       </c>
       <c r="G5" t="n">
-        <v>14745.24390282132</v>
+        <v>14977.09266613346</v>
       </c>
       <c r="H5" t="n">
-        <v>1.631633060654336e-07</v>
+        <v>1.720791898116786e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.3434343434343434</v>
+        <v>0.3686868686868687</v>
       </c>
       <c r="B6" t="n">
-        <v>489.9891532976828</v>
+        <v>497.5074444790369</v>
       </c>
       <c r="C6" t="n">
-        <v>14648.98606583072</v>
+        <v>14873.75704701121</v>
       </c>
       <c r="D6" t="n">
-        <v>170.4906121824304</v>
+        <v>185.9731494872972</v>
       </c>
       <c r="E6" t="n">
-        <v>6.288588154269973</v>
+        <v>6.85966534994129</v>
       </c>
       <c r="F6" t="n">
         <v>-0</v>
       </c>
       <c r="G6" t="n">
-        <v>14648.98606583072</v>
+        <v>14873.75704701121</v>
       </c>
       <c r="H6" t="n">
-        <v>2.168478673886198e-07</v>
+        <v>2.286555116647097e-07</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.4292929292929293</v>
+        <v>0.4608585858585859</v>
       </c>
       <c r="B7" t="n">
-        <v>486.7694563279858</v>
+        <v>494.0510050850975</v>
       </c>
       <c r="C7" t="n">
-        <v>14552.72822884013</v>
+        <v>14770.42142788895</v>
       </c>
       <c r="D7" t="n">
-        <v>212.4221686562596</v>
+        <v>231.6699719735231</v>
       </c>
       <c r="E7" t="n">
-        <v>7.835243925845641</v>
+        <v>8.545203884269295</v>
       </c>
       <c r="F7" t="n">
         <v>-0</v>
       </c>
       <c r="G7" t="n">
-        <v>14552.72822884013</v>
+        <v>14770.42142788895</v>
       </c>
       <c r="H7" t="n">
-        <v>2.7018082502916e-07</v>
+        <v>2.848401294756432e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.5151515151515151</v>
+        <v>0.553030303030303</v>
       </c>
       <c r="B8" t="n">
-        <v>483.5497593582888</v>
+        <v>490.5945656911581</v>
       </c>
       <c r="C8" t="n">
-        <v>14456.47039184953</v>
+        <v>14667.08580876669</v>
       </c>
       <c r="D8" t="n">
-        <v>254.0772865013774</v>
+        <v>277.0482085055096</v>
       </c>
       <c r="E8" t="n">
-        <v>9.371703190624578</v>
+        <v>10.21899129733437</v>
       </c>
       <c r="F8" t="n">
         <v>-0</v>
       </c>
       <c r="G8" t="n">
-        <v>14456.47039184953</v>
+        <v>14667.08580876669</v>
       </c>
       <c r="H8" t="n">
-        <v>3.231621789870544e-07</v>
+        <v>3.40633043244479e-07</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.601010101010101</v>
+        <v>0.6452020202020202</v>
       </c>
       <c r="B9" t="n">
-        <v>480.3300623885918</v>
+        <v>487.1381262972187</v>
       </c>
       <c r="C9" t="n">
-        <v>14360.21255485894</v>
+        <v>14563.75018964444</v>
       </c>
       <c r="D9" t="n">
-        <v>295.4559657177839</v>
+        <v>322.1078590832568</v>
       </c>
       <c r="E9" t="n">
-        <v>10.89796594860678</v>
+        <v>11.88102758913652</v>
       </c>
       <c r="F9" t="n">
         <v>-0</v>
       </c>
       <c r="G9" t="n">
-        <v>14360.21255485894</v>
+        <v>14563.75018964444</v>
       </c>
       <c r="H9" t="n">
-        <v>3.757919292623029e-07</v>
+        <v>3.960342529712173e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.6868686868686869</v>
+        <v>0.7373737373737373</v>
       </c>
       <c r="B10" t="n">
-        <v>477.1103654188949</v>
+        <v>483.6816869032793</v>
       </c>
       <c r="C10" t="n">
-        <v>14263.95471786834</v>
+        <v>14460.41457052218</v>
       </c>
       <c r="D10" t="n">
-        <v>336.5582063054791</v>
+        <v>366.8489237067645</v>
       </c>
       <c r="E10" t="n">
-        <v>12.41403219979226</v>
+        <v>13.53131275967574</v>
       </c>
       <c r="F10" t="n">
         <v>-0</v>
       </c>
       <c r="G10" t="n">
-        <v>14263.95471786834</v>
+        <v>14460.41457052218</v>
       </c>
       <c r="H10" t="n">
-        <v>4.280700758549056e-07</v>
+        <v>4.510437586558581e-07</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.7727272727272727</v>
+        <v>0.8295454545454545</v>
       </c>
       <c r="B11" t="n">
-        <v>473.8906684491979</v>
+        <v>480.2252475093399</v>
       </c>
       <c r="C11" t="n">
-        <v>14167.69688087774</v>
+        <v>14357.07895139992</v>
       </c>
       <c r="D11" t="n">
-        <v>377.3840082644629</v>
+        <v>411.2714023760329</v>
       </c>
       <c r="E11" t="n">
-        <v>13.91990194418101</v>
+        <v>15.16984680895204</v>
       </c>
       <c r="F11" t="n">
         <v>-0</v>
       </c>
       <c r="G11" t="n">
-        <v>14167.69688087774</v>
+        <v>14357.07895139992</v>
       </c>
       <c r="H11" t="n">
-        <v>4.799966187648624e-07</v>
+        <v>5.056615602984012e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.8585858585858586</v>
+        <v>0.9217171717171717</v>
       </c>
       <c r="B12" t="n">
-        <v>470.670971479501</v>
+        <v>476.7688081154005</v>
       </c>
       <c r="C12" t="n">
-        <v>14071.43904388715</v>
+        <v>14253.74333227766</v>
       </c>
       <c r="D12" t="n">
-        <v>417.9333715947353</v>
+        <v>455.3752950910621</v>
       </c>
       <c r="E12" t="n">
-        <v>15.41557518177302</v>
+        <v>16.7966297369654</v>
       </c>
       <c r="F12" t="n">
         <v>-0</v>
       </c>
       <c r="G12" t="n">
-        <v>14071.43904388715</v>
+        <v>14253.74333227766</v>
       </c>
       <c r="H12" t="n">
-        <v>5.315715579921733e-07</v>
+        <v>5.598876578988467e-07</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.9444444444444444</v>
+        <v>1.013888888888889</v>
       </c>
       <c r="B13" t="n">
-        <v>467.451274509804</v>
+        <v>473.3123687214612</v>
       </c>
       <c r="C13" t="n">
-        <v>13975.18120689655</v>
+        <v>14150.40771315541</v>
       </c>
       <c r="D13" t="n">
-        <v>458.2062962962964</v>
+        <v>499.1606018518518</v>
       </c>
       <c r="E13" t="n">
-        <v>16.90105191256831</v>
+        <v>18.41166154371585</v>
       </c>
       <c r="F13" t="n">
         <v>-0</v>
       </c>
       <c r="G13" t="n">
-        <v>13975.18120689655</v>
+        <v>14150.40771315541</v>
       </c>
       <c r="H13" t="n">
-        <v>5.827948935368382e-07</v>
+        <v>6.137220514571949e-07</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.03030303030303</v>
+        <v>1.106060606060606</v>
       </c>
       <c r="B14" t="n">
-        <v>464.231577540107</v>
+        <v>469.8559293275217</v>
       </c>
       <c r="C14" t="n">
-        <v>13878.92336990596</v>
+        <v>14047.07209403315</v>
       </c>
       <c r="D14" t="n">
-        <v>498.202782369146</v>
+        <v>542.6273226584021</v>
       </c>
       <c r="E14" t="n">
-        <v>18.37633213656686</v>
+        <v>20.01494222920336</v>
       </c>
       <c r="F14" t="n">
         <v>-0</v>
       </c>
       <c r="G14" t="n">
-        <v>13878.92336990596</v>
+        <v>14047.07209403315</v>
       </c>
       <c r="H14" t="n">
-        <v>6.336666253988574e-07</v>
+        <v>6.671647409734454e-07</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.116161616161616</v>
+        <v>1.198232323232323</v>
       </c>
       <c r="B15" t="n">
-        <v>461.01188057041</v>
+        <v>466.3994899335823</v>
       </c>
       <c r="C15" t="n">
-        <v>13782.66553291536</v>
+        <v>13943.73647491089</v>
       </c>
       <c r="D15" t="n">
-        <v>537.9228298132844</v>
+        <v>585.7754575107131</v>
       </c>
       <c r="E15" t="n">
-        <v>19.84141585376869</v>
+        <v>21.60647179342794</v>
       </c>
       <c r="F15" t="n">
         <v>-0</v>
       </c>
       <c r="G15" t="n">
-        <v>13782.66553291536</v>
+        <v>13943.73647491089</v>
       </c>
       <c r="H15" t="n">
-        <v>6.841867535782306e-07</v>
+        <v>7.202157264475981e-07</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.202020202020202</v>
+        <v>1.29040404040404</v>
       </c>
       <c r="B16" t="n">
-        <v>457.7921836007131</v>
+        <v>462.943050539643</v>
       </c>
       <c r="C16" t="n">
-        <v>13686.40769592477</v>
+        <v>13840.40085578864</v>
       </c>
       <c r="D16" t="n">
-        <v>577.3664386287114</v>
+        <v>628.6050064087848</v>
       </c>
       <c r="E16" t="n">
-        <v>21.29630306417378</v>
+        <v>23.1862502363896</v>
       </c>
       <c r="F16" t="n">
         <v>-0</v>
       </c>
       <c r="G16" t="n">
-        <v>13686.40769592477</v>
+        <v>13840.40085578864</v>
       </c>
       <c r="H16" t="n">
-        <v>7.343552780749581e-07</v>
+        <v>7.728750078796535e-07</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.287878787878788</v>
+        <v>1.382575757575758</v>
       </c>
       <c r="B17" t="n">
-        <v>454.5724866310161</v>
+        <v>459.4866111457036</v>
       </c>
       <c r="C17" t="n">
-        <v>13590.14985893417</v>
+        <v>13737.06523666638</v>
       </c>
       <c r="D17" t="n">
-        <v>616.5336088154271</v>
+        <v>671.1159693526171</v>
       </c>
       <c r="E17" t="n">
-        <v>22.74099376778215</v>
+        <v>24.75427755808834</v>
       </c>
       <c r="F17" t="n">
         <v>-0</v>
       </c>
       <c r="G17" t="n">
-        <v>13590.14985893417</v>
+        <v>13737.06523666638</v>
       </c>
       <c r="H17" t="n">
-        <v>7.841721988890395e-07</v>
+        <v>8.251425852696112e-07</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.373737373737374</v>
+        <v>1.474747474747475</v>
       </c>
       <c r="B18" t="n">
-        <v>451.3527896613192</v>
+        <v>456.0301717517642</v>
       </c>
       <c r="C18" t="n">
-        <v>13493.89202194358</v>
+        <v>13633.72961754412</v>
       </c>
       <c r="D18" t="n">
-        <v>655.4243403734314</v>
+        <v>713.3083463422098</v>
       </c>
       <c r="E18" t="n">
-        <v>24.17548796459378</v>
+        <v>26.31055375852413</v>
       </c>
       <c r="F18" t="n">
         <v>-0</v>
       </c>
       <c r="G18" t="n">
-        <v>13493.89202194358</v>
+        <v>13633.72961754412</v>
       </c>
       <c r="H18" t="n">
-        <v>8.336375160204753e-07</v>
+        <v>8.770184586174711e-07</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.45959595959596</v>
+        <v>1.566919191919192</v>
       </c>
       <c r="B19" t="n">
-        <v>448.1330926916222</v>
+        <v>452.5737323578248</v>
       </c>
       <c r="C19" t="n">
-        <v>13397.63418495298</v>
+        <v>13530.39399842187</v>
       </c>
       <c r="D19" t="n">
-        <v>694.0386333027243</v>
+        <v>755.1821373775634</v>
       </c>
       <c r="E19" t="n">
-        <v>25.59978565460868</v>
+        <v>27.85507883769701</v>
       </c>
       <c r="F19" t="n">
         <v>-0</v>
       </c>
       <c r="G19" t="n">
-        <v>13397.63418495298</v>
+        <v>13530.39399842187</v>
       </c>
       <c r="H19" t="n">
-        <v>8.827512294692649e-07</v>
+        <v>9.285026279232338e-07</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.545454545454545</v>
+        <v>1.659090909090909</v>
       </c>
       <c r="B20" t="n">
-        <v>444.9133957219252</v>
+        <v>449.1172929638854</v>
       </c>
       <c r="C20" t="n">
-        <v>13301.37634796238</v>
+        <v>13427.05837929961</v>
       </c>
       <c r="D20" t="n">
-        <v>732.3764876033059</v>
+        <v>796.7373424586775</v>
       </c>
       <c r="E20" t="n">
-        <v>27.01388683782686</v>
+        <v>29.38785279560696</v>
       </c>
       <c r="F20" t="n">
         <v>-0</v>
       </c>
       <c r="G20" t="n">
-        <v>13301.37634796238</v>
+        <v>13427.05837929961</v>
       </c>
       <c r="H20" t="n">
-        <v>9.315133392354089e-07</v>
+        <v>9.795950931868987e-07</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.631313131313131</v>
+        <v>1.751262626262626</v>
       </c>
       <c r="B21" t="n">
-        <v>441.6936987522282</v>
+        <v>445.660853569946</v>
       </c>
       <c r="C21" t="n">
-        <v>13205.11851097179</v>
+        <v>13323.72276017735</v>
       </c>
       <c r="D21" t="n">
-        <v>770.437903275176</v>
+        <v>837.9739615855524</v>
       </c>
       <c r="E21" t="n">
-        <v>28.4177915142483</v>
+        <v>30.90887563225398</v>
       </c>
       <c r="F21" t="n">
         <v>-0</v>
       </c>
       <c r="G21" t="n">
-        <v>13205.11851097179</v>
+        <v>13323.72276017735</v>
       </c>
       <c r="H21" t="n">
-        <v>9.79923845318907e-07</v>
+        <v>1.030295854408466e-06</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1.717171717171717</v>
+        <v>1.843434343434343</v>
       </c>
       <c r="B22" t="n">
-        <v>438.4740017825313</v>
+        <v>442.2044141760066</v>
       </c>
       <c r="C22" t="n">
-        <v>13108.86067398119</v>
+        <v>13220.38714105509</v>
       </c>
       <c r="D22" t="n">
-        <v>808.222880318335</v>
+        <v>878.8919947581878</v>
       </c>
       <c r="E22" t="n">
-        <v>29.81149968387301</v>
+        <v>32.41814734763808</v>
       </c>
       <c r="F22" t="n">
         <v>-0</v>
       </c>
       <c r="G22" t="n">
-        <v>13108.86067398119</v>
+        <v>13220.38714105509</v>
       </c>
       <c r="H22" t="n">
-        <v>1.027982747719759e-06</v>
+        <v>1.080604911587936e-06</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1.803030303030303</v>
+        <v>1.935606060606061</v>
       </c>
       <c r="B23" t="n">
-        <v>435.2543048128343</v>
+        <v>438.7479747820672</v>
       </c>
       <c r="C23" t="n">
-        <v>13012.6028369906</v>
+        <v>13117.05152193284</v>
       </c>
       <c r="D23" t="n">
-        <v>845.7314187327825</v>
+        <v>919.4914419765839</v>
       </c>
       <c r="E23" t="n">
-        <v>31.19501134670099</v>
+        <v>33.91566794175925</v>
       </c>
       <c r="F23" t="n">
         <v>-0</v>
       </c>
       <c r="G23" t="n">
-        <v>13012.6028369906</v>
+        <v>13117.05152193284</v>
       </c>
       <c r="H23" t="n">
-        <v>1.075690046437965e-06</v>
+        <v>1.130522264725308e-06</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1.888888888888889</v>
+        <v>2.027777777777778</v>
       </c>
       <c r="B24" t="n">
-        <v>432.0346078431373</v>
+        <v>435.2915353881278</v>
       </c>
       <c r="C24" t="n">
-        <v>12916.345</v>
+        <v>13013.71590281058</v>
       </c>
       <c r="D24" t="n">
-        <v>882.9635185185186</v>
+        <v>959.7723032407407</v>
       </c>
       <c r="E24" t="n">
-        <v>32.56832650273224</v>
+        <v>35.40143741461749</v>
       </c>
       <c r="F24" t="n">
         <v>-0</v>
       </c>
       <c r="G24" t="n">
-        <v>12916.345</v>
+        <v>13013.71590281058</v>
       </c>
       <c r="H24" t="n">
-        <v>1.123045741473526e-06</v>
+        <v>1.180047913820583e-06</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1.974747474747475</v>
+        <v>2.119949494949495</v>
       </c>
       <c r="B25" t="n">
-        <v>428.8149108734403</v>
+        <v>431.8350959941884</v>
       </c>
       <c r="C25" t="n">
-        <v>12820.08716300941</v>
+        <v>12910.38028368832</v>
       </c>
       <c r="D25" t="n">
-        <v>919.9191796755434</v>
+        <v>999.7345785506578</v>
       </c>
       <c r="E25" t="n">
-        <v>33.93144515196677</v>
+        <v>36.8754557662128</v>
       </c>
       <c r="F25" t="n">
         <v>-0</v>
       </c>
       <c r="G25" t="n">
-        <v>12820.08716300941</v>
+        <v>12910.38028368832</v>
       </c>
       <c r="H25" t="n">
-        <v>1.17004983282644e-06</v>
+        <v>1.22918185887376e-06</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2.060606060606061</v>
+        <v>2.212121212121212</v>
       </c>
       <c r="B26" t="n">
-        <v>425.5952139037434</v>
+        <v>428.378656600249</v>
       </c>
       <c r="C26" t="n">
-        <v>12723.82932601881</v>
+        <v>12807.04466456607</v>
       </c>
       <c r="D26" t="n">
-        <v>956.5984022038567</v>
+        <v>1039.378267906336</v>
       </c>
       <c r="E26" t="n">
-        <v>35.28436729440455</v>
+        <v>38.33772299654517</v>
       </c>
       <c r="F26" t="n">
         <v>-0</v>
       </c>
       <c r="G26" t="n">
-        <v>12723.82932601881</v>
+        <v>12807.04466456607</v>
       </c>
       <c r="H26" t="n">
-        <v>1.216702320496709e-06</v>
+        <v>1.277924099884839e-06</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2.146464646464646</v>
+        <v>2.304292929292929</v>
       </c>
       <c r="B27" t="n">
-        <v>422.3755169340464</v>
+        <v>424.9222172063096</v>
       </c>
       <c r="C27" t="n">
-        <v>12627.57148902822</v>
+        <v>12703.70904544381</v>
       </c>
       <c r="D27" t="n">
-        <v>993.0011861034588</v>
+        <v>1078.703371307774</v>
       </c>
       <c r="E27" t="n">
-        <v>36.62709293004561</v>
+        <v>39.78823910561464</v>
       </c>
       <c r="F27" t="n">
         <v>-0</v>
       </c>
       <c r="G27" t="n">
-        <v>12627.57148902822</v>
+        <v>12703.70904544381</v>
       </c>
       <c r="H27" t="n">
-        <v>1.263003204484332e-06</v>
+        <v>1.326274636853821e-06</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2.232323232323232</v>
+        <v>2.396464646464646</v>
       </c>
       <c r="B28" t="n">
-        <v>62.15581996434945</v>
+        <v>421.4657778123702</v>
       </c>
       <c r="C28" t="n">
-        <v>1858.244686520378</v>
+        <v>12600.37342632155</v>
       </c>
       <c r="D28" t="n">
-        <v>1006.878137434956</v>
+        <v>1117.709888754974</v>
       </c>
       <c r="E28" t="n">
-        <v>37.13894769227296</v>
+        <v>41.22700409342117</v>
       </c>
       <c r="F28" t="n">
         <v>-0</v>
       </c>
       <c r="G28" t="n">
-        <v>1858.244686520378</v>
+        <v>12600.37342632155</v>
       </c>
       <c r="H28" t="n">
-        <v>1.280653368699067e-06</v>
+        <v>1.374233469780705e-06</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2.318181818181818</v>
+        <v>2.488636363636364</v>
       </c>
       <c r="B29" t="n">
-        <v>58.93612299465246</v>
+        <v>61.00933841843083</v>
       </c>
       <c r="C29" t="n">
-        <v>1761.986849529783</v>
+        <v>1823.968841682053</v>
       </c>
       <c r="D29" t="n">
-        <v>1012.07652892562</v>
+        <v>1153.314638429752</v>
       </c>
       <c r="E29" t="n">
-        <v>37.3306916406991</v>
+        <v>42.54029404044167</v>
       </c>
       <c r="F29" t="n">
         <v>-0</v>
       </c>
       <c r="G29" t="n">
-        <v>1761.986849529783</v>
+        <v>1823.968841682053</v>
       </c>
       <c r="H29" t="n">
-        <v>1.287265228989624e-06</v>
+        <v>1.418009801348056e-06</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2.404040404040404</v>
+        <v>2.580808080808081</v>
       </c>
       <c r="B30" t="n">
-        <v>55.7164260249555</v>
+        <v>57.55289902449144</v>
       </c>
       <c r="C30" t="n">
-        <v>1665.729012539187</v>
+        <v>1720.633222559796</v>
       </c>
       <c r="D30" t="n">
-        <v>1016.998481787573</v>
+        <v>1158.778680938169</v>
       </c>
       <c r="E30" t="n">
-        <v>37.51223908232851</v>
+        <v>42.74183659198166</v>
       </c>
       <c r="F30" t="n">
         <v>-0</v>
       </c>
       <c r="G30" t="n">
-        <v>1665.729012539187</v>
+        <v>1720.633222559796</v>
       </c>
       <c r="H30" t="n">
-        <v>1.293525485597535e-06</v>
+        <v>1.424727886399389e-06</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2.48989898989899</v>
+        <v>2.672979797979798</v>
       </c>
       <c r="B31" t="n">
-        <v>52.49672905525854</v>
+        <v>54.09645963055205</v>
       </c>
       <c r="C31" t="n">
-        <v>1569.471175548592</v>
+        <v>1617.297603437539</v>
       </c>
       <c r="D31" t="n">
-        <v>1021.643996020814</v>
+        <v>1163.924137492348</v>
       </c>
       <c r="E31" t="n">
-        <v>37.68359001716118</v>
+        <v>42.93162802225873</v>
       </c>
       <c r="F31" t="n">
         <v>-0</v>
       </c>
       <c r="G31" t="n">
-        <v>1569.471175548592</v>
+        <v>1617.297603437539</v>
       </c>
       <c r="H31" t="n">
-        <v>1.299434138522799e-06</v>
+        <v>1.431054267408624e-06</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2.575757575757576</v>
+        <v>2.765151515151515</v>
       </c>
       <c r="B32" t="n">
-        <v>49.27703208556156</v>
+        <v>50.64002023661266</v>
       </c>
       <c r="C32" t="n">
-        <v>1473.213338557996</v>
+        <v>1513.961984315282</v>
       </c>
       <c r="D32" t="n">
-        <v>1026.013071625345</v>
+        <v>1168.751008092286</v>
       </c>
       <c r="E32" t="n">
-        <v>37.84474444519714</v>
+        <v>43.10966833127286</v>
       </c>
       <c r="F32" t="n">
         <v>-0</v>
       </c>
       <c r="G32" t="n">
-        <v>1473.213338557996</v>
+        <v>1513.961984315282</v>
       </c>
       <c r="H32" t="n">
-        <v>1.304991187765418e-06</v>
+        <v>1.436988944375762e-06</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2.661616161616162</v>
+        <v>2.857323232323232</v>
       </c>
       <c r="B33" t="n">
-        <v>46.05733511586459</v>
+        <v>47.18358084267327</v>
       </c>
       <c r="C33" t="n">
-        <v>1376.9555015674</v>
+        <v>1410.626365193025</v>
       </c>
       <c r="D33" t="n">
-        <v>1030.105708601163</v>
+        <v>1173.259292737986</v>
       </c>
       <c r="E33" t="n">
-        <v>37.99570236643635</v>
+        <v>43.27595751902408</v>
       </c>
       <c r="F33" t="n">
         <v>-0</v>
       </c>
       <c r="G33" t="n">
-        <v>1376.9555015674</v>
+        <v>1410.626365193025</v>
       </c>
       <c r="H33" t="n">
-        <v>1.310196633325391e-06</v>
+        <v>1.442531917300803e-06</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2.747474747474747</v>
+        <v>2.949494949494949</v>
       </c>
       <c r="B34" t="n">
-        <v>42.83763814616762</v>
+        <v>43.72714144873386</v>
       </c>
       <c r="C34" t="n">
-        <v>1280.697664576804</v>
+        <v>1307.290746070767</v>
       </c>
       <c r="D34" t="n">
-        <v>1033.921906948271</v>
+        <v>1177.448991429446</v>
       </c>
       <c r="E34" t="n">
-        <v>38.13646378087883</v>
+        <v>43.43049558551235</v>
       </c>
       <c r="F34" t="n">
         <v>-0</v>
       </c>
       <c r="G34" t="n">
-        <v>1280.697664576804</v>
+        <v>1307.290746070767</v>
       </c>
       <c r="H34" t="n">
-        <v>1.315050475202718e-06</v>
+        <v>1.447683186183745e-06</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2.833333333333333</v>
+        <v>3.041666666666667</v>
       </c>
       <c r="B35" t="n">
-        <v>39.61794117647067</v>
+        <v>40.27070205479447</v>
       </c>
       <c r="C35" t="n">
-        <v>1184.439827586209</v>
+        <v>1203.955126948511</v>
       </c>
       <c r="D35" t="n">
-        <v>1037.461666666667</v>
+        <v>1181.320104166667</v>
       </c>
       <c r="E35" t="n">
-        <v>38.2670286885246</v>
+        <v>43.57328253073771</v>
       </c>
       <c r="F35" t="n">
         <v>-0</v>
       </c>
       <c r="G35" t="n">
-        <v>1184.439827586209</v>
+        <v>1203.955126948511</v>
       </c>
       <c r="H35" t="n">
-        <v>1.3195527133974e-06</v>
+        <v>1.45244275102459e-06</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2.919191919191919</v>
+        <v>3.133838383838384</v>
       </c>
       <c r="B36" t="n">
-        <v>36.39824420677368</v>
+        <v>36.81426266085508</v>
       </c>
       <c r="C36" t="n">
-        <v>1088.181990595613</v>
+        <v>1100.619507826254</v>
       </c>
       <c r="D36" t="n">
-        <v>1040.724987756352</v>
+        <v>1184.872630949648</v>
       </c>
       <c r="E36" t="n">
-        <v>38.38739708937362</v>
+        <v>43.70431835470014</v>
       </c>
       <c r="F36" t="n">
         <v>-0</v>
       </c>
       <c r="G36" t="n">
-        <v>1088.181990595613</v>
+        <v>1100.619507826254</v>
       </c>
       <c r="H36" t="n">
-        <v>1.323703347909435e-06</v>
+        <v>1.456810611823338e-06</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3.005050505050505</v>
+        <v>3.226010101010101</v>
       </c>
       <c r="B37" t="n">
-        <v>33.17854723707671</v>
+        <v>33.35782326691569</v>
       </c>
       <c r="C37" t="n">
-        <v>991.9241536050176</v>
+        <v>997.2838887039967</v>
       </c>
       <c r="D37" t="n">
-        <v>1043.711870217325</v>
+        <v>1188.10657177839</v>
       </c>
       <c r="E37" t="n">
-        <v>38.49756898342593</v>
+        <v>43.82360305739962</v>
       </c>
       <c r="F37" t="n">
         <v>-0</v>
       </c>
       <c r="G37" t="n">
-        <v>991.9241536050176</v>
+        <v>997.2838887039967</v>
       </c>
       <c r="H37" t="n">
-        <v>1.327502378738825e-06</v>
+        <v>1.460786768579988e-06</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3.090909090909091</v>
+        <v>3.318181818181818</v>
       </c>
       <c r="B38" t="n">
-        <v>29.95885026737974</v>
+        <v>29.9013838729763</v>
       </c>
       <c r="C38" t="n">
-        <v>895.666316614422</v>
+        <v>893.9482695817396</v>
       </c>
       <c r="D38" t="n">
-        <v>1046.422314049587</v>
+        <v>1191.021926652892</v>
       </c>
       <c r="E38" t="n">
-        <v>38.59754437068149</v>
+        <v>43.9311366388362</v>
       </c>
       <c r="F38" t="n">
         <v>-0</v>
       </c>
       <c r="G38" t="n">
-        <v>895.666316614422</v>
+        <v>893.9482695817396</v>
       </c>
       <c r="H38" t="n">
-        <v>1.330949805885569e-06</v>
+        <v>1.46437122129454e-06</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3.176767676767676</v>
+        <v>3.410353535353535</v>
       </c>
       <c r="B39" t="n">
-        <v>26.73915329768279</v>
+        <v>26.44494447903691</v>
       </c>
       <c r="C39" t="n">
-        <v>799.4084796238269</v>
+        <v>790.6126504594827</v>
       </c>
       <c r="D39" t="n">
-        <v>1048.856319253138</v>
+        <v>1193.618695573156</v>
       </c>
       <c r="E39" t="n">
-        <v>38.68732325114033</v>
+        <v>44.02691909900985</v>
       </c>
       <c r="F39" t="n">
         <v>-0</v>
       </c>
       <c r="G39" t="n">
-        <v>799.4084796238269</v>
+        <v>790.6126504594827</v>
       </c>
       <c r="H39" t="n">
-        <v>1.334045629349667e-06</v>
+        <v>1.467563969966995e-06</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3.262626262626263</v>
+        <v>3.502525252525253</v>
       </c>
       <c r="B40" t="n">
-        <v>23.51945632798581</v>
+        <v>22.9885050850975</v>
       </c>
       <c r="C40" t="n">
-        <v>703.1506426332309</v>
+        <v>687.2770313372253</v>
       </c>
       <c r="D40" t="n">
-        <v>1051.013885827977</v>
+        <v>1195.89687853918</v>
       </c>
       <c r="E40" t="n">
-        <v>38.76690562480243</v>
+        <v>44.11095043792056</v>
       </c>
       <c r="F40" t="n">
         <v>-0</v>
       </c>
       <c r="G40" t="n">
-        <v>703.1506426332309</v>
+        <v>687.2770313372253</v>
       </c>
       <c r="H40" t="n">
-        <v>1.336789849131118e-06</v>
+        <v>1.470365014597352e-06</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3.348484848484849</v>
+        <v>3.59469696969697</v>
       </c>
       <c r="B41" t="n">
-        <v>20.29975935828882</v>
+        <v>19.5320656911581</v>
       </c>
       <c r="C41" t="n">
-        <v>606.8928056426349</v>
+        <v>583.941412214968</v>
       </c>
       <c r="D41" t="n">
-        <v>1052.895013774105</v>
+        <v>1197.856475550964</v>
       </c>
       <c r="E41" t="n">
-        <v>38.83629149166781</v>
+        <v>44.18323065556835</v>
       </c>
       <c r="F41" t="n">
         <v>-0</v>
       </c>
       <c r="G41" t="n">
-        <v>606.8928056426349</v>
+        <v>583.941412214968</v>
       </c>
       <c r="H41" t="n">
-        <v>1.339182465229924e-06</v>
+        <v>1.472774355185612e-06</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3.434343434343434</v>
+        <v>3.686868686868687</v>
       </c>
       <c r="B42" t="n">
-        <v>17.08006238859187</v>
+        <v>16.07562629721872</v>
       </c>
       <c r="C42" t="n">
-        <v>510.6349686520397</v>
+        <v>480.6057930927113</v>
       </c>
       <c r="D42" t="n">
-        <v>1054.499703091521</v>
+        <v>1199.497486608509</v>
       </c>
       <c r="E42" t="n">
-        <v>38.89548085173645</v>
+        <v>44.24375975195321</v>
       </c>
       <c r="F42" t="n">
         <v>-0</v>
       </c>
       <c r="G42" t="n">
-        <v>510.6349686520397</v>
+        <v>480.6057930927113</v>
       </c>
       <c r="H42" t="n">
-        <v>1.341223477646084e-06</v>
+        <v>1.474791991731773e-06</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3.52020202020202</v>
+        <v>3.779040404040404</v>
       </c>
       <c r="B43" t="n">
-        <v>13.8603654188949</v>
+        <v>12.61918690327931</v>
       </c>
       <c r="C43" t="n">
-        <v>414.3771316614441</v>
+        <v>377.270173970454</v>
       </c>
       <c r="D43" t="n">
-        <v>1055.827953780227</v>
+        <v>1200.819911711815</v>
       </c>
       <c r="E43" t="n">
-        <v>38.94447370500836</v>
+        <v>44.29253772707514</v>
       </c>
       <c r="F43" t="n">
         <v>-0</v>
       </c>
       <c r="G43" t="n">
-        <v>414.3771316614441</v>
+        <v>377.270173970454</v>
       </c>
       <c r="H43" t="n">
-        <v>1.342912886379599e-06</v>
+        <v>1.476417924235838e-06</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3.606060606060606</v>
+        <v>3.871212121212121</v>
       </c>
       <c r="B44" t="n">
-        <v>10.64066844919793</v>
+        <v>9.162747509339937</v>
       </c>
       <c r="C44" t="n">
-        <v>318.1192946708485</v>
+        <v>273.9345548481975</v>
       </c>
       <c r="D44" t="n">
-        <v>1056.87976584022</v>
+        <v>1201.823750860881</v>
       </c>
       <c r="E44" t="n">
-        <v>38.98327005148354</v>
+        <v>44.32956458093415</v>
       </c>
       <c r="F44" t="n">
         <v>-0</v>
       </c>
       <c r="G44" t="n">
-        <v>318.1192946708485</v>
+        <v>273.9345548481975</v>
       </c>
       <c r="H44" t="n">
-        <v>1.344250691430467e-06</v>
+        <v>1.477652152697805e-06</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3.691919191919192</v>
+        <v>3.963383838383838</v>
       </c>
       <c r="B45" t="n">
-        <v>7.420971479500963</v>
+        <v>5.706308115400532</v>
       </c>
       <c r="C45" t="n">
-        <v>221.861457680253</v>
+        <v>170.59893572594</v>
       </c>
       <c r="D45" t="n">
-        <v>1057.655139271503</v>
+        <v>1202.509004055708</v>
       </c>
       <c r="E45" t="n">
-        <v>39.01186989116201</v>
+        <v>44.35484031353023</v>
       </c>
       <c r="F45" t="n">
         <v>-0</v>
       </c>
       <c r="G45" t="n">
-        <v>221.861457680253</v>
+        <v>170.59893572594</v>
       </c>
       <c r="H45" t="n">
-        <v>1.34523689279869e-06</v>
+        <v>1.478494677117674e-06</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3.777777777777778</v>
+        <v>4.055555555555555</v>
       </c>
       <c r="B46" t="n">
-        <v>4.201274509803994</v>
+        <v>2.249868721461155</v>
       </c>
       <c r="C46" t="n">
-        <v>125.6036206896574</v>
+        <v>67.26331660368351</v>
       </c>
       <c r="D46" t="n">
-        <v>1058.154074074074</v>
+        <v>1202.875671296296</v>
       </c>
       <c r="E46" t="n">
-        <v>39.03027322404373</v>
+        <v>44.36836492486339</v>
       </c>
       <c r="F46" t="n">
         <v>-0</v>
       </c>
       <c r="G46" t="n">
-        <v>125.6036206896574</v>
+        <v>67.26331660368351</v>
       </c>
       <c r="H46" t="n">
-        <v>1.345871490484266e-06</v>
+        <v>1.478945497495446e-06</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3.863636363636363</v>
+        <v>4.147727272727272</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9815775401070255</v>
+        <v>-1.20657067247825</v>
       </c>
       <c r="C47" t="n">
-        <v>29.34578369906177</v>
+        <v>-36.07230251857389</v>
       </c>
       <c r="D47" t="n">
-        <v>1058.376570247934</v>
+        <v>1202.923752582645</v>
       </c>
       <c r="E47" t="n">
-        <v>39.03848005012872</v>
+        <v>44.37013841493361</v>
       </c>
       <c r="F47" t="n">
         <v>-0</v>
       </c>
       <c r="G47" t="n">
-        <v>29.34578369906177</v>
+        <v>36.07230251857389</v>
       </c>
       <c r="H47" t="n">
-        <v>1.346154484487197e-06</v>
+        <v>1.47900461383112e-06</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>3.949494949494949</v>
+        <v>4.23989898989899</v>
       </c>
       <c r="B48" t="n">
-        <v>-2.238119429589943</v>
+        <v>-4.663010066417655</v>
       </c>
       <c r="C48" t="n">
-        <v>-66.91205329153382</v>
+        <v>-139.4079216408313</v>
       </c>
       <c r="D48" t="n">
-        <v>1058.322627793083</v>
+        <v>1202.653247914753</v>
       </c>
       <c r="E48" t="n">
-        <v>39.03649036941698</v>
+        <v>44.36016078374089</v>
       </c>
       <c r="F48" t="n">
         <v>-0</v>
       </c>
       <c r="G48" t="n">
-        <v>66.91205329153382</v>
+        <v>139.4079216408313</v>
       </c>
       <c r="H48" t="n">
-        <v>1.346085874807482e-06</v>
+        <v>1.478672026124696e-06</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4.035353535353535</v>
+        <v>4.332070707070707</v>
       </c>
       <c r="B49" t="n">
-        <v>-5.457816399286941</v>
+        <v>-8.119449460357032</v>
       </c>
       <c r="C49" t="n">
-        <v>-163.1698902821303</v>
+        <v>-242.7435407630878</v>
       </c>
       <c r="D49" t="n">
-        <v>1057.99224670952</v>
+        <v>1202.064157292623</v>
       </c>
       <c r="E49" t="n">
-        <v>39.02430418190852</v>
+        <v>44.33843203128527</v>
       </c>
       <c r="F49" t="n">
         <v>-0</v>
       </c>
       <c r="G49" t="n">
-        <v>163.1698902821303</v>
+        <v>242.7435407630878</v>
       </c>
       <c r="H49" t="n">
-        <v>1.345665661445121e-06</v>
+        <v>1.477947734376176e-06</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4.121212121212121</v>
+        <v>4.424242424242424</v>
       </c>
       <c r="B50" t="n">
-        <v>-8.677513368983881</v>
+        <v>-11.57588885429644</v>
       </c>
       <c r="C50" t="n">
-        <v>-259.427727272725</v>
+        <v>-346.0791598853452</v>
       </c>
       <c r="D50" t="n">
-        <v>1057.385426997245</v>
+        <v>1201.156480716253</v>
       </c>
       <c r="E50" t="n">
-        <v>39.0019214876033</v>
+        <v>44.30495215756672</v>
       </c>
       <c r="F50" t="n">
         <v>-0</v>
       </c>
       <c r="G50" t="n">
-        <v>259.427727272725</v>
+        <v>346.0791598853452</v>
       </c>
       <c r="H50" t="n">
-        <v>1.344893844400114e-06</v>
+        <v>1.476831738585557e-06</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4.207070707070707</v>
+        <v>4.516414141414141</v>
       </c>
       <c r="B51" t="n">
-        <v>-11.89721033868085</v>
+        <v>-15.03232824823581</v>
       </c>
       <c r="C51" t="n">
-        <v>-355.6855642633206</v>
+        <v>-449.4147790076018</v>
       </c>
       <c r="D51" t="n">
-        <v>1056.50216865626</v>
+        <v>1199.930218185644</v>
       </c>
       <c r="E51" t="n">
-        <v>38.96934228650139</v>
+        <v>44.25972116258524</v>
       </c>
       <c r="F51" t="n">
         <v>-0</v>
       </c>
       <c r="G51" t="n">
-        <v>355.6855642633206</v>
+        <v>449.4147790076018</v>
       </c>
       <c r="H51" t="n">
-        <v>1.343770423672462e-06</v>
+        <v>1.475324038752841e-06</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4.292929292929292</v>
+        <v>4.608585858585858</v>
       </c>
       <c r="B52" t="n">
-        <v>-15.11690730837782</v>
+        <v>-18.48876764217522</v>
       </c>
       <c r="C52" t="n">
-        <v>-451.9434012539161</v>
+        <v>-552.7503981298591</v>
       </c>
       <c r="D52" t="n">
-        <v>1055.342471686563</v>
+        <v>1198.385369700796</v>
       </c>
       <c r="E52" t="n">
-        <v>38.92656657860272</v>
+        <v>44.20273904634082</v>
       </c>
       <c r="F52" t="n">
         <v>-0</v>
       </c>
       <c r="G52" t="n">
-        <v>451.9434012539161</v>
+        <v>552.7503981298591</v>
       </c>
       <c r="H52" t="n">
-        <v>1.342295399262163e-06</v>
+        <v>1.473424634878028e-06</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>4.378787878787879</v>
+        <v>4.700757575757575</v>
       </c>
       <c r="B53" t="n">
-        <v>-18.33660427807482</v>
+        <v>-21.9452070361146</v>
       </c>
       <c r="C53" t="n">
-        <v>-548.2012382445126</v>
+        <v>-656.0860172521157</v>
       </c>
       <c r="D53" t="n">
-        <v>1053.906336088155</v>
+        <v>1196.521935261708</v>
       </c>
       <c r="E53" t="n">
-        <v>38.87359436390734</v>
+        <v>44.13400580883349</v>
       </c>
       <c r="F53" t="n">
         <v>-0</v>
       </c>
       <c r="G53" t="n">
-        <v>548.2012382445126</v>
+        <v>656.0860172521157</v>
       </c>
       <c r="H53" t="n">
-        <v>1.340468771169219e-06</v>
+        <v>1.471133526961116e-06</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>4.464646464646465</v>
+        <v>4.792929292929292</v>
       </c>
       <c r="B54" t="n">
-        <v>-21.55630124777176</v>
+        <v>-25.401646430054</v>
       </c>
       <c r="C54" t="n">
-        <v>-644.4590752351074</v>
+        <v>-759.4216363743732</v>
       </c>
       <c r="D54" t="n">
-        <v>1052.193761861035</v>
+        <v>1194.339914868381</v>
       </c>
       <c r="E54" t="n">
-        <v>38.81042564241521</v>
+        <v>44.05352145006322</v>
       </c>
       <c r="F54" t="n">
         <v>-0</v>
       </c>
       <c r="G54" t="n">
-        <v>644.4590752351074</v>
+        <v>759.4216363743732</v>
       </c>
       <c r="H54" t="n">
-        <v>1.338290539393628e-06</v>
+        <v>1.468450715002107e-06</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>4.55050505050505</v>
+        <v>4.885101010101009</v>
       </c>
       <c r="B55" t="n">
-        <v>-24.77599821746873</v>
+        <v>-28.85808582399338</v>
       </c>
       <c r="C55" t="n">
-        <v>-740.716912225703</v>
+        <v>-862.7572554966297</v>
       </c>
       <c r="D55" t="n">
-        <v>1050.204749005204</v>
+        <v>1191.839308520814</v>
       </c>
       <c r="E55" t="n">
-        <v>38.73706041412638</v>
+        <v>43.96128597003003</v>
       </c>
       <c r="F55" t="n">
         <v>-0</v>
       </c>
       <c r="G55" t="n">
-        <v>740.716912225703</v>
+        <v>862.7572554966297</v>
       </c>
       <c r="H55" t="n">
-        <v>1.335760703935392e-06</v>
+        <v>1.465376199001001e-06</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>4.636363636363637</v>
+        <v>4.977272727272728</v>
       </c>
       <c r="B56" t="n">
-        <v>-27.99569518716572</v>
+        <v>-32.31452521793281</v>
       </c>
       <c r="C56" t="n">
-        <v>-836.9747492162994</v>
+        <v>-966.0928746188879</v>
       </c>
       <c r="D56" t="n">
-        <v>1047.939297520661</v>
+        <v>1189.020116219008</v>
       </c>
       <c r="E56" t="n">
-        <v>38.65349867904079</v>
+        <v>43.85729936873391</v>
       </c>
       <c r="F56" t="n">
         <v>-0</v>
       </c>
       <c r="G56" t="n">
-        <v>836.9747492162994</v>
+        <v>966.0928746188879</v>
       </c>
       <c r="H56" t="n">
-        <v>1.33287926479451e-06</v>
+        <v>1.461909978957797e-06</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>4.722222222222222</v>
+        <v>5.069444444444445</v>
       </c>
       <c r="B57" t="n">
-        <v>-31.21539215686269</v>
+        <v>-35.77096461187222</v>
       </c>
       <c r="C57" t="n">
-        <v>-933.2325862068949</v>
+        <v>-1069.428493741145</v>
       </c>
       <c r="D57" t="n">
-        <v>1045.397407407408</v>
+        <v>1185.882337962963</v>
       </c>
       <c r="E57" t="n">
-        <v>38.55974043715849</v>
+        <v>43.74156164617485</v>
       </c>
       <c r="F57" t="n">
         <v>-0</v>
       </c>
       <c r="G57" t="n">
-        <v>933.2325862068949</v>
+        <v>1069.428493741145</v>
       </c>
       <c r="H57" t="n">
-        <v>1.329646221970982e-06</v>
+        <v>1.458052054872495e-06</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>4.808080808080808</v>
+        <v>5.161616161616162</v>
       </c>
       <c r="B58" t="n">
-        <v>-34.43508912655966</v>
+        <v>-39.22740400581159</v>
       </c>
       <c r="C58" t="n">
-        <v>-1029.490423197491</v>
+        <v>-1172.764112863402</v>
       </c>
       <c r="D58" t="n">
-        <v>1042.579078665442</v>
+        <v>1182.425973752678</v>
       </c>
       <c r="E58" t="n">
-        <v>38.45578568847944</v>
+        <v>43.61407280235287</v>
       </c>
       <c r="F58" t="n">
         <v>-0</v>
       </c>
       <c r="G58" t="n">
-        <v>1029.490423197491</v>
+        <v>1172.764112863402</v>
       </c>
       <c r="H58" t="n">
-        <v>1.326061575464808e-06</v>
+        <v>1.453802426745096e-06</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>4.893939393939394</v>
+        <v>5.253787878787879</v>
       </c>
       <c r="B59" t="n">
-        <v>-37.6547860962566</v>
+        <v>-42.683843399751</v>
       </c>
       <c r="C59" t="n">
-        <v>-1125.748260188085</v>
+        <v>-1276.099731985659</v>
       </c>
       <c r="D59" t="n">
-        <v>1039.484311294766</v>
+        <v>1178.651023588154</v>
       </c>
       <c r="E59" t="n">
-        <v>38.34163443300368</v>
+        <v>43.47483283726797</v>
       </c>
       <c r="F59" t="n">
         <v>-0</v>
       </c>
       <c r="G59" t="n">
-        <v>1125.748260188085</v>
+        <v>1276.099731985659</v>
       </c>
       <c r="H59" t="n">
-        <v>1.322125325275989e-06</v>
+        <v>1.449161094575599e-06</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>4.979797979797979</v>
+        <v>5.345959595959596</v>
       </c>
       <c r="B60" t="n">
-        <v>-40.87448306595357</v>
+        <v>-46.14028279369037</v>
       </c>
       <c r="C60" t="n">
-        <v>-1222.006097178681</v>
+        <v>-1379.435351107916</v>
       </c>
       <c r="D60" t="n">
-        <v>1036.113105295378</v>
+        <v>1174.55748746939</v>
       </c>
       <c r="E60" t="n">
-        <v>38.21728667073117</v>
+        <v>43.32384175092015</v>
       </c>
       <c r="F60" t="n">
         <v>-0</v>
       </c>
       <c r="G60" t="n">
-        <v>1222.006097178681</v>
+        <v>1379.435351107916</v>
       </c>
       <c r="H60" t="n">
-        <v>1.317837471404523e-06</v>
+        <v>1.444128058364005e-06</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>5.065656565656566</v>
+        <v>5.438131313131313</v>
       </c>
       <c r="B61" t="n">
-        <v>-44.09418003565057</v>
+        <v>-49.59672218762978</v>
       </c>
       <c r="C61" t="n">
-        <v>-1318.263934169277</v>
+        <v>-1482.770970230173</v>
       </c>
       <c r="D61" t="n">
-        <v>1032.465460667279</v>
+        <v>1170.145365396388</v>
       </c>
       <c r="E61" t="n">
-        <v>38.08274240166195</v>
+        <v>43.16109954330938</v>
       </c>
       <c r="F61" t="n">
         <v>-0</v>
       </c>
       <c r="G61" t="n">
-        <v>1318.263934169277</v>
+        <v>1482.770970230173</v>
       </c>
       <c r="H61" t="n">
-        <v>1.313198013850412e-06</v>
+        <v>1.438703318110313e-06</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>5.151515151515151</v>
+        <v>5.53030303030303</v>
       </c>
       <c r="B62" t="n">
-        <v>-47.31387700534754</v>
+        <v>-53.05316158156916</v>
       </c>
       <c r="C62" t="n">
-        <v>-1414.521771159873</v>
+        <v>-1586.10658935243</v>
       </c>
       <c r="D62" t="n">
-        <v>1028.541377410468</v>
+        <v>1165.414657369146</v>
       </c>
       <c r="E62" t="n">
-        <v>37.93800162579597</v>
+        <v>42.98660621443572</v>
       </c>
       <c r="F62" t="n">
         <v>-0</v>
       </c>
       <c r="G62" t="n">
-        <v>1414.521771159873</v>
+        <v>1586.10658935243</v>
       </c>
       <c r="H62" t="n">
-        <v>1.308206952613654e-06</v>
+        <v>1.432886873814524e-06</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>5.237373737373737</v>
+        <v>5.622474747474747</v>
       </c>
       <c r="B63" t="n">
-        <v>-50.53357397504448</v>
+        <v>-56.50960097550856</v>
       </c>
       <c r="C63" t="n">
-        <v>-1510.779608150468</v>
+        <v>-1689.442208474687</v>
       </c>
       <c r="D63" t="n">
-        <v>1024.340855524947</v>
+        <v>1160.365363387664</v>
       </c>
       <c r="E63" t="n">
-        <v>37.78306434313328</v>
+        <v>42.8003617642991</v>
       </c>
       <c r="F63" t="n">
         <v>-0</v>
       </c>
       <c r="G63" t="n">
-        <v>1510.779608150468</v>
+        <v>1689.442208474687</v>
       </c>
       <c r="H63" t="n">
-        <v>1.302864287694251e-06</v>
+        <v>1.426678725476636e-06</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>5.323232323232324</v>
+        <v>5.714646464646465</v>
       </c>
       <c r="B64" t="n">
-        <v>-53.75327094474147</v>
+        <v>-59.96604036944794</v>
       </c>
       <c r="C64" t="n">
-        <v>-1607.037445141064</v>
+        <v>-1792.777827596944</v>
       </c>
       <c r="D64" t="n">
-        <v>1019.863895010714</v>
+        <v>1154.997483451943</v>
       </c>
       <c r="E64" t="n">
-        <v>37.61793055367387</v>
+        <v>42.60236619289956</v>
       </c>
       <c r="F64" t="n">
         <v>-0</v>
       </c>
       <c r="G64" t="n">
-        <v>1607.037445141064</v>
+        <v>1792.777827596944</v>
       </c>
       <c r="H64" t="n">
-        <v>1.297170019092202e-06</v>
+        <v>1.420078873096652e-06</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5.409090909090909</v>
+        <v>5.806818181818182</v>
       </c>
       <c r="B65" t="n">
-        <v>-56.97296791443844</v>
+        <v>-63.42247976338734</v>
       </c>
       <c r="C65" t="n">
-        <v>-1703.29528213166</v>
+        <v>-1896.113446719201</v>
       </c>
       <c r="D65" t="n">
-        <v>1015.110495867769</v>
+        <v>1149.311017561983</v>
       </c>
       <c r="E65" t="n">
-        <v>37.44260025741772</v>
+        <v>42.39261950023707</v>
       </c>
       <c r="F65" t="n">
         <v>-0</v>
       </c>
       <c r="G65" t="n">
-        <v>1703.29528213166</v>
+        <v>1896.113446719201</v>
       </c>
       <c r="H65" t="n">
-        <v>1.291124146807507e-06</v>
+        <v>1.413087316674569e-06</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>5.494949494949495</v>
+        <v>5.898989898989899</v>
       </c>
       <c r="B66" t="n">
-        <v>-60.19266488413541</v>
+        <v>-66.87891915732675</v>
       </c>
       <c r="C66" t="n">
-        <v>-1799.553119122255</v>
+        <v>-1999.449065841458</v>
       </c>
       <c r="D66" t="n">
-        <v>1010.080658096113</v>
+        <v>1143.305965717783</v>
       </c>
       <c r="E66" t="n">
-        <v>37.25707345436482</v>
+        <v>42.17112168631169</v>
       </c>
       <c r="F66" t="n">
         <v>-0</v>
       </c>
       <c r="G66" t="n">
-        <v>1799.553119122255</v>
+        <v>1999.449065841458</v>
       </c>
       <c r="H66" t="n">
-        <v>1.284726670840166e-06</v>
+        <v>1.405704056210389e-06</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>5.58080808080808</v>
+        <v>5.991161616161616</v>
       </c>
       <c r="B67" t="n">
-        <v>-63.41236185383235</v>
+        <v>-70.33535855126613</v>
       </c>
       <c r="C67" t="n">
-        <v>-1895.81095611285</v>
+        <v>-2102.784684963715</v>
       </c>
       <c r="D67" t="n">
-        <v>1004.774381695746</v>
+        <v>1136.982327919345</v>
       </c>
       <c r="E67" t="n">
-        <v>37.06135014451522</v>
+        <v>41.93787275112337</v>
       </c>
       <c r="F67" t="n">
         <v>-0</v>
       </c>
       <c r="G67" t="n">
-        <v>1895.81095611285</v>
+        <v>2102.784684963715</v>
       </c>
       <c r="H67" t="n">
-        <v>1.27797759119018e-06</v>
+        <v>1.397929091704112e-06</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>5.666666666666666</v>
+        <v>6.083333333333333</v>
       </c>
       <c r="B68" t="n">
-        <v>-66.63205882352932</v>
+        <v>-307.7917979452055</v>
       </c>
       <c r="C68" t="n">
-        <v>-1992.068793103446</v>
+        <v>-9201.913407534248</v>
       </c>
       <c r="D68" t="n">
-        <v>999.1916666666671</v>
+        <v>1109.670104166667</v>
       </c>
       <c r="E68" t="n">
-        <v>36.85543032786887</v>
+        <v>40.93045466188524</v>
       </c>
       <c r="F68" t="n">
         <v>-0</v>
       </c>
       <c r="G68" t="n">
-        <v>1992.068793103446</v>
+        <v>9201.913407534248</v>
       </c>
       <c r="H68" t="n">
-        <v>1.270876907857547e-06</v>
+        <v>1.364348488729508e-06</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>5.752525252525253</v>
+        <v>6.17550505050505</v>
       </c>
       <c r="B69" t="n">
-        <v>-303.8517557932263</v>
+        <v>-311.2482373391449</v>
       </c>
       <c r="C69" t="n">
-        <v>-9084.119733542317</v>
+        <v>-9305.249026656506</v>
       </c>
       <c r="D69" t="n">
-        <v>976.3616039179681</v>
+        <v>1081.141112641567</v>
       </c>
       <c r="E69" t="n">
-        <v>36.01333784943326</v>
+        <v>39.87815579415617</v>
       </c>
       <c r="F69" t="n">
         <v>-0</v>
       </c>
       <c r="G69" t="n">
-        <v>9084.119733542317</v>
+        <v>9305.249026656506</v>
       </c>
       <c r="H69" t="n">
-        <v>1.241839236187354e-06</v>
+        <v>1.329271859805206e-06</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>5.838383838383838</v>
+        <v>6.267676767676767</v>
       </c>
       <c r="B70" t="n">
-        <v>-307.0714527629233</v>
+        <v>-314.7046767330843</v>
       </c>
       <c r="C70" t="n">
-        <v>-9180.377570532914</v>
+        <v>-9408.584645778761</v>
       </c>
       <c r="D70" t="n">
-        <v>950.1351025405576</v>
+        <v>1052.293535162228</v>
       </c>
       <c r="E70" t="n">
-        <v>35.04596689698779</v>
+        <v>38.81410580516415</v>
       </c>
       <c r="F70" t="n">
         <v>-0</v>
       </c>
       <c r="G70" t="n">
-        <v>9180.377570532914</v>
+        <v>9408.584645778761</v>
       </c>
       <c r="H70" t="n">
-        <v>1.20848161713751e-06</v>
+        <v>1.293803526838805e-06</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>5.924242424242424</v>
+        <v>6.359848484848484</v>
       </c>
       <c r="B71" t="n">
-        <v>-310.2911497326203</v>
+        <v>-318.1611161270237</v>
       </c>
       <c r="C71" t="n">
-        <v>-9276.63540752351</v>
+        <v>-9511.920264901019</v>
       </c>
       <c r="D71" t="n">
-        <v>923.6321625344359</v>
+        <v>1023.12737172865</v>
       </c>
       <c r="E71" t="n">
-        <v>34.06839943774559</v>
+        <v>37.73830469490922</v>
       </c>
       <c r="F71" t="n">
         <v>-0</v>
       </c>
       <c r="G71" t="n">
-        <v>9276.63540752351</v>
+        <v>9511.920264901019</v>
       </c>
       <c r="H71" t="n">
-        <v>1.17477239440502e-06</v>
+        <v>1.257943489830307e-06</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>6.01010101010101</v>
+        <v>6.452020202020202</v>
       </c>
       <c r="B72" t="n">
-        <v>-313.5108467023172</v>
+        <v>-321.6175555209631</v>
       </c>
       <c r="C72" t="n">
-        <v>-9372.893244514105</v>
+        <v>-9615.255884023278</v>
       </c>
       <c r="D72" t="n">
-        <v>896.8527838996023</v>
+        <v>993.6426223408328</v>
       </c>
       <c r="E72" t="n">
-        <v>33.08063547170664</v>
+        <v>36.65075246339138</v>
       </c>
       <c r="F72" t="n">
         <v>-0</v>
       </c>
       <c r="G72" t="n">
-        <v>9372.893244514105</v>
+        <v>9615.255884023278</v>
       </c>
       <c r="H72" t="n">
-        <v>1.140711567989884e-06</v>
+        <v>1.221691748779712e-06</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>6.095959595959596</v>
+        <v>6.544191919191919</v>
       </c>
       <c r="B73" t="n">
-        <v>-316.7305436720142</v>
+        <v>-325.0739949149025</v>
       </c>
       <c r="C73" t="n">
-        <v>-9469.151081504699</v>
+        <v>-9718.591503145533</v>
       </c>
       <c r="D73" t="n">
-        <v>869.7969666360577</v>
+        <v>963.8392869987755</v>
       </c>
       <c r="E73" t="n">
-        <v>32.08267499887098</v>
+        <v>35.55144911061057</v>
       </c>
       <c r="F73" t="n">
         <v>-0</v>
       </c>
       <c r="G73" t="n">
-        <v>9469.151081504699</v>
+        <v>9718.591503145533</v>
       </c>
       <c r="H73" t="n">
-        <v>1.106299137892103e-06</v>
+        <v>1.185048303687019e-06</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>6.181818181818182</v>
+        <v>6.636363636363636</v>
       </c>
       <c r="B74" t="n">
-        <v>-319.9502406417112</v>
+        <v>-328.5304343088419</v>
       </c>
       <c r="C74" t="n">
-        <v>-9565.408918495295</v>
+        <v>-9821.927122267791</v>
       </c>
       <c r="D74" t="n">
-        <v>842.4647107438019</v>
+        <v>933.7173657024788</v>
       </c>
       <c r="E74" t="n">
-        <v>31.0745180192386</v>
+        <v>34.44039463656684</v>
       </c>
       <c r="F74" t="n">
         <v>-0</v>
       </c>
       <c r="G74" t="n">
-        <v>9565.408918495295</v>
+        <v>9821.927122267791</v>
       </c>
       <c r="H74" t="n">
-        <v>1.071535104111676e-06</v>
+        <v>1.148013154552228e-06</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>6.267676767676767</v>
+        <v>6.728535353535353</v>
       </c>
       <c r="B75" t="n">
-        <v>-323.1699376114082</v>
+        <v>-331.9868737027813</v>
       </c>
       <c r="C75" t="n">
-        <v>-9661.666755485892</v>
+        <v>-9925.262741390046</v>
       </c>
       <c r="D75" t="n">
-        <v>814.8560162228347</v>
+        <v>903.2768584519436</v>
       </c>
       <c r="E75" t="n">
-        <v>30.05616453280948</v>
+        <v>33.31758904126021</v>
       </c>
       <c r="F75" t="n">
         <v>-0</v>
       </c>
       <c r="G75" t="n">
-        <v>9661.666755485892</v>
+        <v>9925.262741390046</v>
       </c>
       <c r="H75" t="n">
-        <v>1.036419466648603e-06</v>
+        <v>1.11058630137534e-06</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>6.353535353535353</v>
+        <v>6.82070707070707</v>
       </c>
       <c r="B76" t="n">
-        <v>-326.389634581105</v>
+        <v>-335.4433130967207</v>
       </c>
       <c r="C76" t="n">
-        <v>-9757.924592476487</v>
+        <v>-10028.59836051231</v>
       </c>
       <c r="D76" t="n">
-        <v>786.9708830731564</v>
+        <v>872.5177652471684</v>
       </c>
       <c r="E76" t="n">
-        <v>29.02761453958364</v>
+        <v>32.18303232469064</v>
       </c>
       <c r="F76" t="n">
         <v>-0</v>
       </c>
       <c r="G76" t="n">
-        <v>9757.924592476487</v>
+        <v>10028.59836051231</v>
       </c>
       <c r="H76" t="n">
-        <v>1.000952225502884e-06</v>
+        <v>1.072767744156355e-06</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>6.439393939393939</v>
+        <v>6.912878787878788</v>
       </c>
       <c r="B77" t="n">
-        <v>-329.609331550802</v>
+        <v>-338.8997524906601</v>
       </c>
       <c r="C77" t="n">
-        <v>-9854.182429467084</v>
+        <v>-10131.93397963456</v>
       </c>
       <c r="D77" t="n">
-        <v>758.8093112947658</v>
+        <v>841.4400860881536</v>
       </c>
       <c r="E77" t="n">
-        <v>27.98886803956104</v>
+        <v>31.03672448685813</v>
       </c>
       <c r="F77" t="n">
         <v>-0</v>
       </c>
       <c r="G77" t="n">
-        <v>9854.182429467084</v>
+        <v>10131.93397963456</v>
       </c>
       <c r="H77" t="n">
-        <v>9.651333806745184e-07</v>
+        <v>1.034557482895271e-06</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>6.525252525252525</v>
+        <v>7.005050505050505</v>
       </c>
       <c r="B78" t="n">
-        <v>-332.829028520499</v>
+        <v>-342.3561918845995</v>
       </c>
       <c r="C78" t="n">
-        <v>-9950.440266457679</v>
+        <v>-10235.26959875682</v>
       </c>
       <c r="D78" t="n">
-        <v>730.371300887665</v>
+        <v>810.0438209749003</v>
       </c>
       <c r="E78" t="n">
-        <v>26.93992503274175</v>
+        <v>29.87866552776272</v>
       </c>
       <c r="F78" t="n">
         <v>-0</v>
       </c>
       <c r="G78" t="n">
-        <v>9950.440266457679</v>
+        <v>10235.26959875682</v>
       </c>
       <c r="H78" t="n">
-        <v>9.289629321635085e-07</v>
+        <v>9.959555175920906e-07</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>6.611111111111111</v>
+        <v>7.097222222222222</v>
       </c>
       <c r="B79" t="n">
-        <v>-336.048725490196</v>
+        <v>-345.8126312785388</v>
       </c>
       <c r="C79" t="n">
-        <v>-10046.69810344828</v>
+        <v>-10338.60521787908</v>
       </c>
       <c r="D79" t="n">
-        <v>701.6568518518524</v>
+        <v>778.3289699074069</v>
       </c>
       <c r="E79" t="n">
-        <v>25.8807855191257</v>
+        <v>28.70885544740436</v>
       </c>
       <c r="F79" t="n">
         <v>-0</v>
       </c>
       <c r="G79" t="n">
-        <v>10046.69810344828</v>
+        <v>10338.60521787908</v>
       </c>
       <c r="H79" t="n">
-        <v>8.924408799698517e-07</v>
+        <v>9.569618482468118e-07</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>6.696969696969697</v>
+        <v>7.189393939393939</v>
       </c>
       <c r="B80" t="n">
-        <v>-339.268422459893</v>
+        <v>-349.2690706724783</v>
       </c>
       <c r="C80" t="n">
-        <v>-10142.95594043887</v>
+        <v>-10441.94083700133</v>
       </c>
       <c r="D80" t="n">
-        <v>672.6659641873283</v>
+        <v>746.295532885675</v>
       </c>
       <c r="E80" t="n">
-        <v>24.81144949871293</v>
+        <v>27.5272942457831</v>
       </c>
       <c r="F80" t="n">
         <v>-0</v>
       </c>
       <c r="G80" t="n">
-        <v>10142.95594043887</v>
+        <v>10441.94083700133</v>
       </c>
       <c r="H80" t="n">
-        <v>8.555672240935493e-07</v>
+        <v>9.175764748594366e-07</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>6.782828282828283</v>
+        <v>7.281565656565657</v>
       </c>
       <c r="B81" t="n">
-        <v>-342.4881194295899</v>
+        <v>-352.7255100664177</v>
       </c>
       <c r="C81" t="n">
-        <v>-10239.21377742947</v>
+        <v>-10545.27645612359</v>
       </c>
       <c r="D81" t="n">
-        <v>643.3986378940929</v>
+        <v>713.9435099097022</v>
       </c>
       <c r="E81" t="n">
-        <v>23.73191697150343</v>
+        <v>26.33398192289885</v>
       </c>
       <c r="F81" t="n">
         <v>-0</v>
       </c>
       <c r="G81" t="n">
-        <v>10239.21377742947</v>
+        <v>10545.27645612359</v>
       </c>
       <c r="H81" t="n">
-        <v>8.18341964534601e-07</v>
+        <v>8.777993974299618e-07</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>6.868686868686869</v>
+        <v>7.373737373737374</v>
       </c>
       <c r="B82" t="n">
-        <v>-345.7078163992869</v>
+        <v>-356.181949460357</v>
       </c>
       <c r="C82" t="n">
-        <v>-10335.47161442006</v>
+        <v>-10648.61207524585</v>
       </c>
       <c r="D82" t="n">
-        <v>613.854872972146</v>
+        <v>681.2729009794915</v>
       </c>
       <c r="E82" t="n">
-        <v>22.64218793749719</v>
+        <v>25.12891847875174</v>
       </c>
       <c r="F82" t="n">
         <v>-0</v>
       </c>
       <c r="G82" t="n">
-        <v>10335.47161442006</v>
+        <v>10648.61207524585</v>
       </c>
       <c r="H82" t="n">
-        <v>7.807651012930066e-07</v>
+        <v>8.376306159583912e-07</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>6.954545454545454</v>
+        <v>7.465909090909091</v>
       </c>
       <c r="B83" t="n">
-        <v>-348.9275133689839</v>
+        <v>-359.6383888542964</v>
       </c>
       <c r="C83" t="n">
-        <v>-10431.72945141065</v>
+        <v>-10751.94769436811</v>
       </c>
       <c r="D83" t="n">
-        <v>584.0346694214879</v>
+        <v>648.2837060950405</v>
       </c>
       <c r="E83" t="n">
-        <v>21.54226239669423</v>
+        <v>23.91210391334166</v>
       </c>
       <c r="F83" t="n">
         <v>-0</v>
       </c>
       <c r="G83" t="n">
-        <v>10431.72945141065</v>
+        <v>10751.94769436811</v>
       </c>
       <c r="H83" t="n">
-        <v>7.428366343687664e-07</v>
+        <v>7.97070130444722e-07</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>7.04040404040404</v>
+        <v>7.558080808080808</v>
       </c>
       <c r="B84" t="n">
-        <v>-352.1472103386808</v>
+        <v>-363.0948282482358</v>
       </c>
       <c r="C84" t="n">
-        <v>-10527.98728840125</v>
+        <v>-10855.28331349036</v>
       </c>
       <c r="D84" t="n">
-        <v>553.9380272421189</v>
+        <v>614.975925256351</v>
       </c>
       <c r="E84" t="n">
-        <v>20.43214034909455</v>
+        <v>22.68353822666869</v>
       </c>
       <c r="F84" t="n">
         <v>-0</v>
       </c>
       <c r="G84" t="n">
-        <v>10527.98728840125</v>
+        <v>10855.28331349036</v>
       </c>
       <c r="H84" t="n">
-        <v>7.04556563761881e-07</v>
+        <v>7.561179408889562e-07</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>7.126262626262626</v>
+        <v>7.650252525252525</v>
       </c>
       <c r="B85" t="n">
-        <v>-355.3669073083778</v>
+        <v>-366.5512676421752</v>
       </c>
       <c r="C85" t="n">
-        <v>-10624.24512539185</v>
+        <v>-10958.61893261262</v>
       </c>
       <c r="D85" t="n">
-        <v>523.5649464340374</v>
+        <v>581.3495584634215</v>
       </c>
       <c r="E85" t="n">
-        <v>19.3118217946981</v>
+        <v>21.44322141873276</v>
       </c>
       <c r="F85" t="n">
         <v>-0</v>
       </c>
       <c r="G85" t="n">
-        <v>10624.24512539185</v>
+        <v>10958.61893261262</v>
       </c>
       <c r="H85" t="n">
-        <v>6.659248894723485e-07</v>
+        <v>7.147740472910921e-07</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>7.212121212121212</v>
+        <v>7.742424242424242</v>
       </c>
       <c r="B86" t="n">
-        <v>-358.5866042780748</v>
+        <v>-370.0077070361146</v>
       </c>
       <c r="C86" t="n">
-        <v>-10720.50296238244</v>
+        <v>-11061.95455173488</v>
       </c>
       <c r="D86" t="n">
-        <v>492.9154269972457</v>
+        <v>547.4046057162534</v>
       </c>
       <c r="E86" t="n">
-        <v>18.18130673350497</v>
+        <v>20.19115348953394</v>
       </c>
       <c r="F86" t="n">
         <v>-0</v>
       </c>
       <c r="G86" t="n">
-        <v>10720.50296238244</v>
+        <v>11061.95455173488</v>
       </c>
       <c r="H86" t="n">
-        <v>6.269416115001713e-07</v>
+        <v>6.730384496511313e-07</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>7.297979797979798</v>
+        <v>7.834595959595959</v>
       </c>
       <c r="B87" t="n">
-        <v>-361.8063012477718</v>
+        <v>-373.464146430054</v>
       </c>
       <c r="C87" t="n">
-        <v>-10816.76079937304</v>
+        <v>-11165.29017085713</v>
       </c>
       <c r="D87" t="n">
-        <v>461.9894689317421</v>
+        <v>513.1410670148448</v>
       </c>
       <c r="E87" t="n">
-        <v>17.04059516551508</v>
+        <v>18.92733443907214</v>
       </c>
       <c r="F87" t="n">
         <v>-0</v>
       </c>
       <c r="G87" t="n">
-        <v>10816.76079937304</v>
+        <v>11165.29017085713</v>
       </c>
       <c r="H87" t="n">
-        <v>5.876067298453475e-07</v>
+        <v>6.309111479690715e-07</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>7.383838383838384</v>
+        <v>7.926767676767676</v>
       </c>
       <c r="B88" t="n">
-        <v>-365.0259982174687</v>
+        <v>-376.9205858239934</v>
       </c>
       <c r="C88" t="n">
-        <v>-10913.01863636363</v>
+        <v>-11268.62578997939</v>
       </c>
       <c r="D88" t="n">
-        <v>430.7870722375272</v>
+        <v>478.558942359198</v>
       </c>
       <c r="E88" t="n">
-        <v>15.88968709072846</v>
+        <v>17.65176426734747</v>
       </c>
       <c r="F88" t="n">
         <v>-0</v>
       </c>
       <c r="G88" t="n">
-        <v>10913.01863636363</v>
+        <v>11268.62578997939</v>
       </c>
       <c r="H88" t="n">
-        <v>5.47920244507878e-07</v>
+        <v>5.883921422449156e-07</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>7.46969696969697</v>
+        <v>8.018939393939394</v>
       </c>
       <c r="B89" t="n">
-        <v>-368.2456951871657</v>
+        <v>-380.3770252179328</v>
       </c>
       <c r="C89" t="n">
-        <v>-11009.27647335423</v>
+        <v>-11371.96140910165</v>
       </c>
       <c r="D89" t="n">
-        <v>399.3082369146009</v>
+        <v>443.6582317493114</v>
       </c>
       <c r="E89" t="n">
-        <v>14.72858250914512</v>
+        <v>16.36444297435985</v>
       </c>
       <c r="F89" t="n">
         <v>-0</v>
       </c>
       <c r="G89" t="n">
-        <v>11009.27647335423</v>
+        <v>11371.96140910165</v>
       </c>
       <c r="H89" t="n">
-        <v>5.078821554877627e-07</v>
+        <v>5.454814324786617e-07</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>7.555555555555555</v>
+        <v>8.111111111111111</v>
       </c>
       <c r="B90" t="n">
-        <v>-371.4653921568627</v>
+        <v>-383.8334646118722</v>
       </c>
       <c r="C90" t="n">
-        <v>-11105.53431034482</v>
+        <v>-11475.2970282239</v>
       </c>
       <c r="D90" t="n">
-        <v>367.5529629629636</v>
+        <v>408.4389351851855</v>
       </c>
       <c r="E90" t="n">
-        <v>13.55728142076505</v>
+        <v>15.0653705601093</v>
       </c>
       <c r="F90" t="n">
         <v>-0</v>
       </c>
       <c r="G90" t="n">
-        <v>11105.53431034482</v>
+        <v>11475.2970282239</v>
       </c>
       <c r="H90" t="n">
-        <v>4.674924627850018e-07</v>
+        <v>5.021790186703101e-07</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>7.641414141414141</v>
+        <v>8.203282828282829</v>
       </c>
       <c r="B91" t="n">
-        <v>-374.6850891265597</v>
+        <v>-387.2899040058116</v>
       </c>
       <c r="C91" t="n">
-        <v>-11201.79214733542</v>
+        <v>-11578.63264734616</v>
       </c>
       <c r="D91" t="n">
-        <v>335.5212503826144</v>
+        <v>372.9010526668199</v>
       </c>
       <c r="E91" t="n">
-        <v>12.37578382558824</v>
+        <v>13.75454702459582</v>
       </c>
       <c r="F91" t="n">
         <v>-0</v>
       </c>
       <c r="G91" t="n">
-        <v>11201.79214733542</v>
+        <v>11578.63264734616</v>
       </c>
       <c r="H91" t="n">
-        <v>4.267511663995944e-07</v>
+        <v>4.584849008198605e-07</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>7.727272727272727</v>
+        <v>8.295454545454545</v>
       </c>
       <c r="B92" t="n">
-        <v>-377.9047860962566</v>
+        <v>-390.746343399751</v>
       </c>
       <c r="C92" t="n">
-        <v>-11298.04998432602</v>
+        <v>-11681.96826646842</v>
       </c>
       <c r="D92" t="n">
-        <v>303.2130991735544</v>
+        <v>337.0445841942151</v>
       </c>
       <c r="E92" t="n">
-        <v>11.18408972361471</v>
+        <v>12.43197236781941</v>
       </c>
       <c r="F92" t="n">
         <v>-0</v>
       </c>
       <c r="G92" t="n">
-        <v>11298.04998432602</v>
+        <v>11681.96826646842</v>
       </c>
       <c r="H92" t="n">
-        <v>3.856582663315418e-07</v>
+        <v>4.143990789273136e-07</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>7.813131313131313</v>
+        <v>8.387626262626263</v>
       </c>
       <c r="B93" t="n">
-        <v>-381.1244830659536</v>
+        <v>-394.2027827936904</v>
       </c>
       <c r="C93" t="n">
-        <v>-11394.30782131661</v>
+        <v>-11785.30388559068</v>
       </c>
       <c r="D93" t="n">
-        <v>270.6285093357824</v>
+        <v>300.8695297673705</v>
       </c>
       <c r="E93" t="n">
-        <v>9.982199114844432</v>
+        <v>11.09764658978006</v>
       </c>
       <c r="F93" t="n">
         <v>-0</v>
       </c>
       <c r="G93" t="n">
-        <v>11394.30782131661</v>
+        <v>11785.30388559068</v>
       </c>
       <c r="H93" t="n">
-        <v>3.442137625808425e-07</v>
+        <v>3.699215529926687e-07</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>7.898989898989899</v>
+        <v>8.479797979797979</v>
       </c>
       <c r="B94" t="n">
-        <v>-384.3441800356505</v>
+        <v>-397.6592221876298</v>
       </c>
       <c r="C94" t="n">
-        <v>-11490.56565830721</v>
+        <v>-11888.63950471293</v>
       </c>
       <c r="D94" t="n">
-        <v>237.7674808692996</v>
+        <v>264.3758893862869</v>
       </c>
       <c r="E94" t="n">
-        <v>8.770111999277443</v>
+        <v>9.751569690477796</v>
       </c>
       <c r="F94" t="n">
         <v>-0</v>
       </c>
       <c r="G94" t="n">
-        <v>11490.56565830721</v>
+        <v>11888.63950471293</v>
       </c>
       <c r="H94" t="n">
-        <v>3.02417655147498e-07</v>
+        <v>3.250523230159265e-07</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>7.984848484848484</v>
+        <v>8.571969696969697</v>
       </c>
       <c r="B95" t="n">
-        <v>-387.5638770053475</v>
+        <v>-401.1156615815692</v>
       </c>
       <c r="C95" t="n">
-        <v>-11586.82349529781</v>
+        <v>-11991.97512383519</v>
       </c>
       <c r="D95" t="n">
-        <v>204.6300137741052</v>
+        <v>227.5636630509634</v>
       </c>
       <c r="E95" t="n">
-        <v>7.547828376913718</v>
+        <v>8.393741669912586</v>
       </c>
       <c r="F95" t="n">
         <v>-0</v>
       </c>
       <c r="G95" t="n">
-        <v>11586.82349529781</v>
+        <v>11991.97512383519</v>
       </c>
       <c r="H95" t="n">
-        <v>2.602699440315075e-07</v>
+        <v>2.797913889970862e-07</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>8.070707070707071</v>
+        <v>8.664141414141413</v>
       </c>
       <c r="B96" t="n">
-        <v>-390.7835739750445</v>
+        <v>-404.5721009755085</v>
       </c>
       <c r="C96" t="n">
-        <v>-11683.0813322884</v>
+        <v>-12095.31074295745</v>
       </c>
       <c r="D96" t="n">
-        <v>171.2161080501994</v>
+        <v>190.4328507614018</v>
       </c>
       <c r="E96" t="n">
-        <v>6.315348247753257</v>
+        <v>7.024162528084494</v>
       </c>
       <c r="F96" t="n">
         <v>-0</v>
       </c>
       <c r="G96" t="n">
-        <v>11683.0813322884</v>
+        <v>12095.31074295745</v>
       </c>
       <c r="H96" t="n">
-        <v>2.177706292328709e-07</v>
+        <v>2.341387509361498e-07</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>8.156565656565656</v>
+        <v>8.756313131313131</v>
       </c>
       <c r="B97" t="n">
-        <v>-394.0032709447414</v>
+        <v>-408.028540369448</v>
       </c>
       <c r="C97" t="n">
-        <v>-11779.33916927899</v>
+        <v>-12198.6463620797</v>
       </c>
       <c r="D97" t="n">
-        <v>137.5257636975828</v>
+        <v>152.9834525175997</v>
       </c>
       <c r="E97" t="n">
-        <v>5.072671611796086</v>
+        <v>5.642832264993434</v>
       </c>
       <c r="F97" t="n">
         <v>-0</v>
       </c>
       <c r="G97" t="n">
-        <v>11779.33916927899</v>
+        <v>12198.6463620797</v>
       </c>
       <c r="H97" t="n">
-        <v>1.749197107515892e-07</v>
+        <v>1.880944088331145e-07</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>8.242424242424242</v>
+        <v>8.848484848484848</v>
       </c>
       <c r="B98" t="n">
-        <v>-397.2229679144384</v>
+        <v>-411.4849797633873</v>
       </c>
       <c r="C98" t="n">
-        <v>-11875.59700626959</v>
+        <v>-12301.98198120196</v>
       </c>
       <c r="D98" t="n">
-        <v>103.5589807162537</v>
+        <v>115.2154683195592</v>
       </c>
       <c r="E98" t="n">
-        <v>3.819798469042145</v>
+        <v>4.249750880639481</v>
       </c>
       <c r="F98" t="n">
         <v>-0</v>
       </c>
       <c r="G98" t="n">
-        <v>11875.59700626959</v>
+        <v>12301.98198120196</v>
       </c>
       <c r="H98" t="n">
-        <v>1.317171885876602e-07</v>
+        <v>1.416583626879827e-07</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>8.328282828282829</v>
+        <v>8.940656565656566</v>
       </c>
       <c r="B99" t="n">
-        <v>-400.4426648841354</v>
+        <v>-414.9414191573267</v>
       </c>
       <c r="C99" t="n">
-        <v>-11971.85484326019</v>
+        <v>-12405.31760032422</v>
       </c>
       <c r="D99" t="n">
-        <v>69.31575910621405</v>
+        <v>77.12889816727829</v>
       </c>
       <c r="E99" t="n">
-        <v>2.556728819491502</v>
+        <v>2.84491837502256</v>
       </c>
       <c r="F99" t="n">
         <v>-0</v>
       </c>
       <c r="G99" t="n">
-        <v>11971.85484326019</v>
+        <v>12405.31760032422</v>
       </c>
       <c r="H99" t="n">
-        <v>8.816306274108627e-08</v>
+        <v>9.483061250075201e-08</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>8.414141414141413</v>
+        <v>9.032828282828282</v>
       </c>
       <c r="B100" t="n">
-        <v>-403.6623618538324</v>
+        <v>-418.3978585512661</v>
       </c>
       <c r="C100" t="n">
-        <v>-12068.11268025078</v>
+        <v>-12508.65321944647</v>
       </c>
       <c r="D100" t="n">
-        <v>34.79609886746334</v>
+        <v>38.72374206075915</v>
       </c>
       <c r="E100" t="n">
-        <v>1.28346266314414</v>
+        <v>1.428334748142756</v>
       </c>
       <c r="F100" t="n">
         <v>-0</v>
       </c>
       <c r="G100" t="n">
-        <v>12068.11268025078</v>
+        <v>12508.65321944647</v>
       </c>
       <c r="H100" t="n">
-        <v>4.425733321186689e-08</v>
+        <v>4.761115827142518e-08</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>8.5</v>
+        <v>9.125</v>
       </c>
       <c r="B101" t="n">
-        <v>-406.8820588235293</v>
+        <v>-421.8542979452055</v>
       </c>
       <c r="C101" t="n">
-        <v>-12164.37051724138</v>
+        <v>-12611.98883856873</v>
       </c>
       <c r="D101" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="E101" t="n">
-        <v>1.67734678605663e-14</v>
+        <v>-1.67734678605663e-14</v>
       </c>
       <c r="F101" t="n">
         <v>-0</v>
       </c>
       <c r="G101" t="n">
-        <v>12164.37051724138</v>
+        <v>12611.98883856873</v>
       </c>
       <c r="H101" t="n">
-        <v>5.783954434678035e-22</v>
+        <v>-5.5911559535221e-22</v>
       </c>
     </row>
   </sheetData>
